--- a/data/Spreadsheet_Data/Fairytale.xlsx
+++ b/data/Spreadsheet_Data/Fairytale.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9679F1-61D2-1549-B354-B2F3BFF1A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>hasId</t>
   </si>
@@ -19,23 +28,35 @@
     <t>hasFairytaleDescription</t>
   </si>
   <si>
-    <t>In the fairytale "Alice in Daschland," a curious young girl named Alice discovers a magical realm powered by Dasch, a company known for its repository for humanities data. This world is filled with technological wonders like talking robots, digital trees, and houses that change color. Guided by a robot named RabbIT, Alice explores various marvels, including a café with size-altering tea and a library with books that speak. She meets the Queen of Hearts, an engineer who creates devices connecting emotions with digital data. Although Alice returns to her world with a token from Daschland, the experience leaves her inspired, reminding her that the realm of innovation and dreams, where humanities data come to life, awaits her return.</t>
+    <t>F_01</t>
+  </si>
+  <si>
+    <t>In the fairytale "Alice in Daschland," a curious young girl named Alice discovers a magical realm powered by Dasch, a company known for its repository for humanities data. &lt;br&gt;This world is filled with technological wonders like talking robots, digital trees, and houses that change color. &lt;br&gt;Guided by a robot named RabbIT, Alice explores various marvels, including a café with size-altering tea and a library with books that speak. &lt;br&gt;She meets the Queen of Hearts, an engineer who creates devices connecting emotions with digital data. &lt;br&gt;Although Alice returns to her world with a token from Daschland, the experience leaves her inspired, reminding her that the realm of innovation and dreams, where humanities data come to life, awaits her return.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -44,36 +65,50 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -263,36 +298,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="18.38"/>
+    <col min="2" max="2" width="94.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="1:2" ht="98" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Spreadsheet_Data/Fairytale.xlsx
+++ b/data/Spreadsheet_Data/Fairytale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E9679F1-61D2-1549-B354-B2F3BFF1A5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4753A0-4957-0C46-B72B-C0D86CA75BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="76800" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8060" yWindow="500" windowWidth="48200" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,25 +20,32 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>hasId</t>
-  </si>
-  <si>
-    <t>hasFairytaleDescription</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>F_01</t>
   </si>
   <si>
-    <t>In the fairytale "Alice in Daschland," a curious young girl named Alice discovers a magical realm powered by Dasch, a company known for its repository for humanities data. &lt;br&gt;This world is filled with technological wonders like talking robots, digital trees, and houses that change color. &lt;br&gt;Guided by a robot named RabbIT, Alice explores various marvels, including a café with size-altering tea and a library with books that speak. &lt;br&gt;She meets the Queen of Hearts, an engineer who creates devices connecting emotions with digital data. &lt;br&gt;Although Alice returns to her world with a token from Daschland, the experience leaves her inspired, reminding her that the realm of innovation and dreams, where humanities data come to life, awaits her return.</t>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>F_02</t>
+  </si>
+  <si>
+    <t>In the fairytale "Alice in DaSCHland," a curious young girl named Alice discovers a magical realm powered by DaSCH, a company that operates as a repository for research data in the humanities. This world is filled with technological wonders like talking robots, digital trees, and houses that change color. Guided by a robot named RabbIT, Alice explores various marvels, including a café with size-altering tea and a library with books that speak. She meets the Queen of Hearts, an engineer who creates devices connecting emotions with digital data. Although Alice returns to her world with a token from DaSCHland, the experience leaves her inspired, reminding her that the realm of innovation and dreams, where research data in the humanities are brought to life, awaits her return.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+In the enchanting tale of "Alice in DaSCHland," a young, adventurous girl named Alice finds herself in a fantastical world powered by DaSCH, a pioneering company known for its repository of humanities research data. DaSCHland is a place where technology and imagination merge, featuring sentient robots, trees with digital leaves, and dynamically transforming houses. With the guidance of RabbIT, a robot companion, Alice explores incredible sights, such as a café that offers teas causing her to shrink or grow and a library where books narrate their own stories. She encounters the Queen of Hearts, a brilliant engineer who designs devices that weave human emotions into digital formats. When Alice returns to her own reality, carrying a small, glowing keepsake from her journey, she is left with a sense of wonder and a knowledge that DaSCHland's visionary world, where the humanities data comes alive, will always be there, inviting her to explore further.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -55,6 +62,12 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,7 +93,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -88,6 +101,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -308,10 +330,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -321,21 +343,57 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="98" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="140" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A5" s="6"/>
+    </row>
+    <row r="6" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A6" s="6"/>
+    </row>
+    <row r="7" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A8" s="6"/>
+    </row>
+    <row r="9" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A9" s="6"/>
+    </row>
+    <row r="10" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="A10" s="6"/>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Spreadsheet_Data/Fairytale.xlsx
+++ b/data/Spreadsheet_Data/Fairytale.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A4753A0-4957-0C46-B72B-C0D86CA75BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9911402D-BA93-4440-82B4-97DADB25BCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8060" yWindow="500" windowWidth="48200" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32440" yWindow="500" windowWidth="32660" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>F_01</t>
   </si>
@@ -37,8 +37,16 @@
     <t>In the fairytale "Alice in DaSCHland," a curious young girl named Alice discovers a magical realm powered by DaSCH, a company that operates as a repository for research data in the humanities. This world is filled with technological wonders like talking robots, digital trees, and houses that change color. Guided by a robot named RabbIT, Alice explores various marvels, including a café with size-altering tea and a library with books that speak. She meets the Queen of Hearts, an engineer who creates devices connecting emotions with digital data. Although Alice returns to her world with a token from DaSCHland, the experience leaves her inspired, reminding her that the realm of innovation and dreams, where research data in the humanities are brought to life, awaits her return.</t>
   </si>
   <si>
-    <t xml:space="preserve">
-In the enchanting tale of "Alice in DaSCHland," a young, adventurous girl named Alice finds herself in a fantastical world powered by DaSCH, a pioneering company known for its repository of humanities research data. DaSCHland is a place where technology and imagination merge, featuring sentient robots, trees with digital leaves, and dynamically transforming houses. With the guidance of RabbIT, a robot companion, Alice explores incredible sights, such as a café that offers teas causing her to shrink or grow and a library where books narrate their own stories. She encounters the Queen of Hearts, a brilliant engineer who designs devices that weave human emotions into digital formats. When Alice returns to her own reality, carrying a small, glowing keepsake from her journey, she is left with a sense of wonder and a knowledge that DaSCHland's visionary world, where the humanities data comes alive, will always be there, inviting her to explore further.</t>
+    <t>In the enchanting tale of "Alice in DaSCHland," a young, adventurous girl named Alice finds herself in a fantastical world powered by DaSCH, a pioneering company known for its repository of humanities research data. DaSCHland is a place where technology and imagination merge, featuring sentient robots, trees with digital leaves, and dynamically transforming houses. With the guidance of RabbIT, a robot companion, Alice explores incredible sights, such as a café that offers teas causing her to shrink or grow and a library where books narrate their own stories. She encounters the Queen of Hearts, a brilliant engineer who designs devices that weave human emotions into digital formats. When Alice returns to her own reality, carrying a small, glowing keepsake from her journey, she is left with a sense of wonder and a knowledge that DaSCHland's visionary world, where the humanities data comes alive, will always be there, inviting her to explore further.</t>
+  </si>
+  <si>
+    <t>Alice in DaSCHland</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Through the DaSCH Looking-Glass and what Alice found there</t>
   </si>
 </sst>
 </file>
@@ -330,66 +338,76 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="94.5" style="4" customWidth="1"/>
+    <col min="2" max="2" width="101.83203125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="50.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="140" x14ac:dyDescent="0.15">
+      <c r="C2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A4" s="6"/>
     </row>
-    <row r="5" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A5" s="6"/>
     </row>
-    <row r="6" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A6" s="6"/>
     </row>
-    <row r="7" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
     </row>
-    <row r="8" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
     </row>
-    <row r="9" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
     </row>
-    <row r="10" spans="1:2" ht="13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A10" s="6"/>
     </row>
-    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Fairytale.xlsx
+++ b/data/Spreadsheet_Data/Fairytale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9911402D-BA93-4440-82B4-97DADB25BCA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8D658D-281C-104C-ABE8-C1E7633D1A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32440" yWindow="500" windowWidth="32660" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32440" yWindow="500" windowWidth="37880" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/data/Spreadsheet_Data/Fairytale.xlsx
+++ b/data/Spreadsheet_Data/Fairytale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E8D658D-281C-104C-ABE8-C1E7633D1A1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE9C228-DDD3-AD43-B75F-E243B372FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="32440" yWindow="500" windowWidth="37880" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/Spreadsheet_Data/Fairytale.xlsx
+++ b/data/Spreadsheet_Data/Fairytale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCE9C228-DDD3-AD43-B75F-E243B372FA91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB7C6B6A-398D-C341-8C5B-07903326646A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32440" yWindow="500" windowWidth="37880" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="500" windowWidth="41780" windowHeight="18420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>F_01</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
     <t>Description</t>
   </si>
   <si>
-    <t>F_02</t>
-  </si>
-  <si>
     <t>In the fairytale "Alice in DaSCHland," a curious young girl named Alice discovers a magical realm powered by DaSCH, a company that operates as a repository for research data in the humanities. This world is filled with technological wonders like talking robots, digital trees, and houses that change color. Guided by a robot named RabbIT, Alice explores various marvels, including a café with size-altering tea and a library with books that speak. She meets the Queen of Hearts, an engineer who creates devices connecting emotions with digital data. Although Alice returns to her world with a token from DaSCHland, the experience leaves her inspired, reminding her that the realm of innovation and dreams, where research data in the humanities are brought to life, awaits her return.</t>
   </si>
   <si>
@@ -47,6 +41,12 @@
   </si>
   <si>
     <t>Through the DaSCH Looking-Glass and what Alice found there</t>
+  </si>
+  <si>
+    <t>FT_001</t>
+  </si>
+  <si>
+    <t>FT_002</t>
   </si>
 </sst>
 </file>
@@ -341,7 +341,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -352,35 +352,35 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>2</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="87" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="13" x14ac:dyDescent="0.15">
